--- a/stock_historical_data/1mo/KPIGREEN.NS.xlsx
+++ b/stock_historical_data/1mo/KPIGREEN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,63 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1913</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1913</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>22</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/KPIGREEN.NS.xlsx
+++ b/stock_historical_data/1mo/KPIGREEN.NS.xlsx
@@ -2485,7 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/KPIGREEN.NS.xlsx
+++ b/stock_historical_data/1mo/KPIGREEN.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B2" t="n">
-        <v>47.06666564941406</v>
+        <v>13.82198540525243</v>
       </c>
       <c r="C2" t="n">
-        <v>54.46666717529297</v>
+        <v>14.67290496826172</v>
       </c>
       <c r="D2" t="n">
-        <v>38.76666641235352</v>
+        <v>13.20015978682553</v>
       </c>
       <c r="E2" t="n">
-        <v>45.68333435058594</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45.19969940185547</v>
-      </c>
+        <v>14.67290496826172</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>7242726</v>
+        <v>14770134</v>
       </c>
       <c r="H2" t="n">
         <v>2021</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B3" t="n">
-        <v>47.13333129882812</v>
+        <v>47.06666564941406</v>
       </c>
       <c r="C3" t="n">
-        <v>47.13333129882812</v>
+        <v>54.46666717529297</v>
       </c>
       <c r="D3" t="n">
-        <v>39.73333358764648</v>
+        <v>38.76666641235352</v>
       </c>
       <c r="E3" t="n">
-        <v>42.46666717529297</v>
+        <v>45.68333435058594</v>
       </c>
       <c r="F3" t="n">
-        <v>42.01708221435547</v>
+        <v>45.19969940185547</v>
       </c>
       <c r="G3" t="n">
-        <v>3928461</v>
+        <v>7242726</v>
       </c>
       <c r="H3" t="n">
         <v>2021</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B4" t="n">
+        <v>47.13333129882812</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47.13333129882812</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.73333358764648</v>
+      </c>
+      <c r="E4" t="n">
         <v>42.46666717529297</v>
       </c>
-      <c r="C4" t="n">
-        <v>59.16666412353516</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.33333206176758</v>
-      </c>
-      <c r="E4" t="n">
-        <v>53.81666564941406</v>
-      </c>
       <c r="F4" t="n">
-        <v>53.24691772460938</v>
+        <v>42.01708221435547</v>
       </c>
       <c r="G4" t="n">
-        <v>4794138</v>
+        <v>3928461</v>
       </c>
       <c r="H4" t="n">
         <v>2021</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B5" t="n">
-        <v>53</v>
+        <v>42.46666717529297</v>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>59.16666412353516</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>40.33333206176758</v>
       </c>
       <c r="E5" t="n">
-        <v>79.66666412353516</v>
+        <v>53.81666564941406</v>
       </c>
       <c r="F5" t="n">
-        <v>78.82324981689453</v>
+        <v>53.24691772460938</v>
       </c>
       <c r="G5" t="n">
-        <v>5346711</v>
+        <v>4794138</v>
       </c>
       <c r="H5" t="n">
         <v>2021</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B6" t="n">
-        <v>81.66666412353516</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>116.1500015258789</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
-        <v>78.51666259765625</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>106.75</v>
+        <v>79.66666412353516</v>
       </c>
       <c r="F6" t="n">
-        <v>105.9243316650391</v>
+        <v>78.82324981689453</v>
       </c>
       <c r="G6" t="n">
-        <v>6435981</v>
+        <v>5346711</v>
       </c>
       <c r="H6" t="n">
         <v>2021</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B7" t="n">
-        <v>110.033332824707</v>
+        <v>81.66666412353516</v>
       </c>
       <c r="C7" t="n">
-        <v>174.25</v>
+        <v>116.1500015258789</v>
       </c>
       <c r="D7" t="n">
-        <v>105.5166625976562</v>
+        <v>78.51666259765625</v>
       </c>
       <c r="E7" t="n">
-        <v>165.1499938964844</v>
+        <v>106.75</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8726043701172</v>
+        <v>105.9243316650391</v>
       </c>
       <c r="G7" t="n">
-        <v>7210074</v>
+        <v>6435981</v>
       </c>
       <c r="H7" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B8" t="n">
-        <v>166.6666717529297</v>
+        <v>110.033332824707</v>
       </c>
       <c r="C8" t="n">
-        <v>168.7333374023438</v>
+        <v>174.25</v>
       </c>
       <c r="D8" t="n">
-        <v>123.5833358764648</v>
+        <v>105.5166625976562</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2333374023438</v>
+        <v>165.1499938964844</v>
       </c>
       <c r="F8" t="n">
-        <v>135.2996520996094</v>
+        <v>163.8726043701172</v>
       </c>
       <c r="G8" t="n">
-        <v>4755135</v>
+        <v>7210074</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B9" t="n">
+        <v>166.6666717529297</v>
+      </c>
+      <c r="C9" t="n">
+        <v>168.7333374023438</v>
+      </c>
+      <c r="D9" t="n">
+        <v>123.5833358764648</v>
+      </c>
+      <c r="E9" t="n">
         <v>136.2333374023438</v>
       </c>
-      <c r="C9" t="n">
-        <v>194.3666687011719</v>
-      </c>
-      <c r="D9" t="n">
-        <v>130.0166625976562</v>
-      </c>
-      <c r="E9" t="n">
-        <v>185.3333282470703</v>
-      </c>
       <c r="F9" t="n">
-        <v>184.0631103515625</v>
+        <v>135.2996520996094</v>
       </c>
       <c r="G9" t="n">
-        <v>5592345</v>
+        <v>4755135</v>
       </c>
       <c r="H9" t="n">
         <v>2022</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B10" t="n">
-        <v>188.6666717529297</v>
+        <v>136.2333374023438</v>
       </c>
       <c r="C10" t="n">
-        <v>190.9833374023438</v>
+        <v>194.3666687011719</v>
       </c>
       <c r="D10" t="n">
-        <v>169.5333404541016</v>
+        <v>130.0166625976562</v>
       </c>
       <c r="E10" t="n">
-        <v>176.3833312988281</v>
+        <v>185.3333282470703</v>
       </c>
       <c r="F10" t="n">
-        <v>175.1744537353516</v>
+        <v>184.0631103515625</v>
       </c>
       <c r="G10" t="n">
-        <v>3425097</v>
+        <v>5592345</v>
       </c>
       <c r="H10" t="n">
         <v>2022</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B11" t="n">
-        <v>177</v>
+        <v>188.6666717529297</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1166687011719</v>
+        <v>190.9833374023438</v>
       </c>
       <c r="D11" t="n">
-        <v>127.6833343505859</v>
+        <v>169.5333404541016</v>
       </c>
       <c r="E11" t="n">
-        <v>151.8833312988281</v>
+        <v>176.3833312988281</v>
       </c>
       <c r="F11" t="n">
-        <v>150.8423767089844</v>
+        <v>175.1744537353516</v>
       </c>
       <c r="G11" t="n">
-        <v>4475373</v>
+        <v>3425097</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B12" t="n">
-        <v>152.2333374023438</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
-        <v>260</v>
+        <v>178.1166687011719</v>
       </c>
       <c r="D12" t="n">
-        <v>148.7666625976562</v>
+        <v>127.6833343505859</v>
       </c>
       <c r="E12" t="n">
-        <v>219.3999938964844</v>
+        <v>151.8833312988281</v>
       </c>
       <c r="F12" t="n">
-        <v>219.0265350341797</v>
+        <v>150.8423767089844</v>
       </c>
       <c r="G12" t="n">
-        <v>32552001</v>
+        <v>4475373</v>
       </c>
       <c r="H12" t="n">
         <v>2022</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B13" t="n">
-        <v>219.8166656494141</v>
+        <v>152.2333374023438</v>
       </c>
       <c r="C13" t="n">
-        <v>269.6666564941406</v>
+        <v>260</v>
       </c>
       <c r="D13" t="n">
-        <v>212</v>
+        <v>148.7666625976562</v>
       </c>
       <c r="E13" t="n">
-        <v>229.4833374023438</v>
+        <v>219.3999938964844</v>
       </c>
       <c r="F13" t="n">
-        <v>229.0927276611328</v>
+        <v>219.0265350341797</v>
       </c>
       <c r="G13" t="n">
-        <v>17689899</v>
+        <v>32552001</v>
       </c>
       <c r="H13" t="n">
         <v>2022</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B14" t="n">
-        <v>231</v>
+        <v>219.8166656494141</v>
       </c>
       <c r="C14" t="n">
-        <v>318.3333435058594</v>
+        <v>269.6666564941406</v>
       </c>
       <c r="D14" t="n">
-        <v>218.6666717529297</v>
+        <v>212</v>
       </c>
       <c r="E14" t="n">
-        <v>306.5</v>
+        <v>229.4833374023438</v>
       </c>
       <c r="F14" t="n">
-        <v>305.9783020019531</v>
+        <v>229.0927276611328</v>
       </c>
       <c r="G14" t="n">
-        <v>18236910</v>
+        <v>17689899</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B15" t="n">
-        <v>309.6666564941406</v>
+        <v>231</v>
       </c>
       <c r="C15" t="n">
-        <v>320.6666564941406</v>
+        <v>318.3333435058594</v>
       </c>
       <c r="D15" t="n">
-        <v>267.3999938964844</v>
+        <v>218.6666717529297</v>
       </c>
       <c r="E15" t="n">
-        <v>287.3999938964844</v>
+        <v>306.5</v>
       </c>
       <c r="F15" t="n">
-        <v>287.0093078613281</v>
+        <v>305.9783020019531</v>
       </c>
       <c r="G15" t="n">
-        <v>7821399</v>
+        <v>18236910</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B16" t="n">
-        <v>286.6666564941406</v>
+        <v>309.6666564941406</v>
       </c>
       <c r="C16" t="n">
-        <v>311.6666564941406</v>
+        <v>320.6666564941406</v>
       </c>
       <c r="D16" t="n">
-        <v>230</v>
+        <v>267.3999938964844</v>
       </c>
       <c r="E16" t="n">
-        <v>237.7333374023438</v>
+        <v>287.3999938964844</v>
       </c>
       <c r="F16" t="n">
-        <v>237.4101715087891</v>
+        <v>287.0093078613281</v>
       </c>
       <c r="G16" t="n">
-        <v>6910932</v>
+        <v>7821399</v>
       </c>
       <c r="H16" t="n">
         <v>2022</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B17" t="n">
-        <v>240</v>
+        <v>286.6666564941406</v>
       </c>
       <c r="C17" t="n">
-        <v>319.3333435058594</v>
+        <v>311.6666564941406</v>
       </c>
       <c r="D17" t="n">
-        <v>230.8833312988281</v>
+        <v>230</v>
       </c>
       <c r="E17" t="n">
-        <v>317.5333251953125</v>
+        <v>237.7333374023438</v>
       </c>
       <c r="F17" t="n">
-        <v>317.2076110839844</v>
+        <v>237.4101715087891</v>
       </c>
       <c r="G17" t="n">
-        <v>9129069</v>
+        <v>6910932</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B18" t="n">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C18" t="n">
-        <v>325</v>
+        <v>319.3333435058594</v>
       </c>
       <c r="D18" t="n">
-        <v>250.6666717529297</v>
+        <v>230.8833312988281</v>
       </c>
       <c r="E18" t="n">
-        <v>291.4833374023438</v>
+        <v>317.5333251953125</v>
       </c>
       <c r="F18" t="n">
-        <v>291.1843566894531</v>
+        <v>317.2076110839844</v>
       </c>
       <c r="G18" t="n">
-        <v>6311628</v>
+        <v>9129069</v>
       </c>
       <c r="H18" t="n">
         <v>2022</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B19" t="n">
-        <v>293.3333435058594</v>
+        <v>325</v>
       </c>
       <c r="C19" t="n">
-        <v>319.2999877929688</v>
+        <v>325</v>
       </c>
       <c r="D19" t="n">
-        <v>263.3333435058594</v>
+        <v>250.6666717529297</v>
       </c>
       <c r="E19" t="n">
-        <v>316.1000061035156</v>
+        <v>291.4833374023438</v>
       </c>
       <c r="F19" t="n">
-        <v>315.7757568359375</v>
+        <v>291.1843566894531</v>
       </c>
       <c r="G19" t="n">
-        <v>4496793</v>
+        <v>6311628</v>
       </c>
       <c r="H19" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B20" t="n">
-        <v>318</v>
+        <v>293.3333435058594</v>
       </c>
       <c r="C20" t="n">
-        <v>340</v>
+        <v>319.2999877929688</v>
       </c>
       <c r="D20" t="n">
-        <v>279.3999938964844</v>
+        <v>263.3333435058594</v>
       </c>
       <c r="E20" t="n">
-        <v>288.7999877929688</v>
+        <v>316.1000061035156</v>
       </c>
       <c r="F20" t="n">
-        <v>288.5037841796875</v>
+        <v>315.7757568359375</v>
       </c>
       <c r="G20" t="n">
-        <v>6850513</v>
+        <v>4496793</v>
       </c>
       <c r="H20" t="n">
         <v>2023</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B21" t="n">
-        <v>286.6666564941406</v>
+        <v>318</v>
       </c>
       <c r="C21" t="n">
-        <v>311.0333251953125</v>
+        <v>340</v>
       </c>
       <c r="D21" t="n">
-        <v>260</v>
+        <v>279.3999938964844</v>
       </c>
       <c r="E21" t="n">
-        <v>278.3999938964844</v>
+        <v>288.7999877929688</v>
       </c>
       <c r="F21" t="n">
-        <v>278.2378234863281</v>
+        <v>288.5037841796875</v>
       </c>
       <c r="G21" t="n">
-        <v>5012440</v>
+        <v>6850513</v>
       </c>
       <c r="H21" t="n">
         <v>2023</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B22" t="n">
-        <v>280.6666564941406</v>
+        <v>286.6666564941406</v>
       </c>
       <c r="C22" t="n">
-        <v>343.5333251953125</v>
+        <v>311.0333251953125</v>
       </c>
       <c r="D22" t="n">
-        <v>278.9666748046875</v>
+        <v>260</v>
       </c>
       <c r="E22" t="n">
-        <v>337.3666687011719</v>
+        <v>278.3999938964844</v>
       </c>
       <c r="F22" t="n">
-        <v>337.1701354980469</v>
+        <v>278.2378234863281</v>
       </c>
       <c r="G22" t="n">
-        <v>6390293</v>
+        <v>5012440</v>
       </c>
       <c r="H22" t="n">
         <v>2023</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B23" t="n">
+        <v>280.6666564941406</v>
+      </c>
+      <c r="C23" t="n">
+        <v>343.5333251953125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>278.9666748046875</v>
+      </c>
+      <c r="E23" t="n">
         <v>337.3666687011719</v>
       </c>
-      <c r="C23" t="n">
-        <v>370.6666564941406</v>
-      </c>
-      <c r="D23" t="n">
-        <v>312.6666564941406</v>
-      </c>
-      <c r="E23" t="n">
-        <v>328.2666625976562</v>
-      </c>
       <c r="F23" t="n">
-        <v>328.075439453125</v>
+        <v>337.1701354980469</v>
       </c>
       <c r="G23" t="n">
-        <v>10202440</v>
+        <v>6390293</v>
       </c>
       <c r="H23" t="n">
         <v>2023</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B24" t="n">
-        <v>331.8999938964844</v>
+        <v>337.3666687011719</v>
       </c>
       <c r="C24" t="n">
-        <v>565.8666381835938</v>
+        <v>370.6666564941406</v>
       </c>
       <c r="D24" t="n">
-        <v>328.7999877929688</v>
+        <v>312.6666564941406</v>
       </c>
       <c r="E24" t="n">
-        <v>543.5333251953125</v>
+        <v>328.2666625976562</v>
       </c>
       <c r="F24" t="n">
-        <v>543.2166748046875</v>
+        <v>328.075439453125</v>
       </c>
       <c r="G24" t="n">
-        <v>19741803</v>
+        <v>10202440</v>
       </c>
       <c r="H24" t="n">
         <v>2023</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B25" t="n">
-        <v>545.3333129882812</v>
+        <v>331.8999938964844</v>
       </c>
       <c r="C25" t="n">
-        <v>607.2999877929688</v>
+        <v>565.8666381835938</v>
       </c>
       <c r="D25" t="n">
-        <v>540.7000122070312</v>
+        <v>328.7999877929688</v>
       </c>
       <c r="E25" t="n">
-        <v>553.1666870117188</v>
+        <v>543.5333251953125</v>
       </c>
       <c r="F25" t="n">
-        <v>552.8444213867188</v>
+        <v>543.2166748046875</v>
       </c>
       <c r="G25" t="n">
-        <v>6275200</v>
+        <v>19741803</v>
       </c>
       <c r="H25" t="n">
         <v>2023</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B26" t="n">
-        <v>549.9666748046875</v>
+        <v>545.3333129882812</v>
       </c>
       <c r="C26" t="n">
-        <v>640</v>
+        <v>607.2999877929688</v>
       </c>
       <c r="D26" t="n">
-        <v>497.3333435058594</v>
+        <v>540.7000122070312</v>
       </c>
       <c r="E26" t="n">
-        <v>596.0333251953125</v>
+        <v>553.1666870117188</v>
       </c>
       <c r="F26" t="n">
-        <v>595.6860961914062</v>
+        <v>552.8444213867188</v>
       </c>
       <c r="G26" t="n">
-        <v>6882790</v>
+        <v>6275200</v>
       </c>
       <c r="H26" t="n">
         <v>2023</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B27" t="n">
-        <v>593.3333129882812</v>
+        <v>549.9666748046875</v>
       </c>
       <c r="C27" t="n">
-        <v>599.3333129882812</v>
+        <v>640</v>
       </c>
       <c r="D27" t="n">
-        <v>510.6666564941406</v>
+        <v>497.3333435058594</v>
       </c>
       <c r="E27" t="n">
-        <v>548.5999755859375</v>
+        <v>596.0333251953125</v>
       </c>
       <c r="F27" t="n">
-        <v>548.438232421875</v>
+        <v>595.6860961914062</v>
       </c>
       <c r="G27" t="n">
-        <v>4251953</v>
+        <v>6882790</v>
       </c>
       <c r="H27" t="n">
         <v>2023</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B28" t="n">
+        <v>593.3333129882812</v>
+      </c>
+      <c r="C28" t="n">
+        <v>599.3333129882812</v>
+      </c>
+      <c r="D28" t="n">
+        <v>510.6666564941406</v>
+      </c>
+      <c r="E28" t="n">
         <v>548.5999755859375</v>
       </c>
-      <c r="C28" t="n">
-        <v>626.6666870117188</v>
-      </c>
-      <c r="D28" t="n">
-        <v>518</v>
-      </c>
-      <c r="E28" t="n">
-        <v>546.3333129882812</v>
-      </c>
       <c r="F28" t="n">
-        <v>546.1722412109375</v>
+        <v>548.438232421875</v>
       </c>
       <c r="G28" t="n">
-        <v>5391593</v>
+        <v>4251953</v>
       </c>
       <c r="H28" t="n">
         <v>2023</v>
       </c>
       <c r="I28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B29" t="n">
-        <v>542.6666870117188</v>
+        <v>548.5999755859375</v>
       </c>
       <c r="C29" t="n">
-        <v>842.1666870117188</v>
+        <v>626.6666870117188</v>
       </c>
       <c r="D29" t="n">
-        <v>540.0333251953125</v>
+        <v>518</v>
       </c>
       <c r="E29" t="n">
-        <v>770.1333618164062</v>
+        <v>546.3333129882812</v>
       </c>
       <c r="F29" t="n">
-        <v>770.1333618164062</v>
+        <v>546.1722412109375</v>
       </c>
       <c r="G29" t="n">
-        <v>10601284</v>
+        <v>5391593</v>
       </c>
       <c r="H29" t="n">
         <v>2023</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B30" t="n">
-        <v>779.6333618164062</v>
+        <v>542.6666870117188</v>
       </c>
       <c r="C30" t="n">
-        <v>978.566650390625</v>
+        <v>842.1666870117188</v>
       </c>
       <c r="D30" t="n">
-        <v>748.7999877929688</v>
+        <v>540.0333251953125</v>
       </c>
       <c r="E30" t="n">
-        <v>978.566650390625</v>
+        <v>770.1333618164062</v>
       </c>
       <c r="F30" t="n">
-        <v>978.566650390625</v>
+        <v>770.1333618164062</v>
       </c>
       <c r="G30" t="n">
-        <v>13035769</v>
+        <v>10601284</v>
       </c>
       <c r="H30" t="n">
         <v>2023</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B31" t="n">
-        <v>990.2666625976562</v>
+        <v>779.6333618164062</v>
       </c>
       <c r="C31" t="n">
-        <v>1214.066650390625</v>
+        <v>978.566650390625</v>
       </c>
       <c r="D31" t="n">
-        <v>910.4000244140625</v>
+        <v>748.7999877929688</v>
       </c>
       <c r="E31" t="n">
-        <v>1214.066650390625</v>
+        <v>978.566650390625</v>
       </c>
       <c r="F31" t="n">
-        <v>1214.066650390625</v>
+        <v>978.566650390625</v>
       </c>
       <c r="G31" t="n">
-        <v>9332487</v>
+        <v>13035769</v>
       </c>
       <c r="H31" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B32" t="n">
-        <v>1276.666625976562</v>
+        <v>990.2666625976562</v>
       </c>
       <c r="C32" t="n">
-        <v>1890</v>
+        <v>1214.066650390625</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.966674804688</v>
+        <v>910.4000244140625</v>
       </c>
       <c r="E32" t="n">
-        <v>1740.150024414062</v>
+        <v>1214.066650390625</v>
       </c>
       <c r="F32" t="n">
-        <v>1740.150024414062</v>
+        <v>1214.066650390625</v>
       </c>
       <c r="G32" t="n">
-        <v>11116234</v>
+        <v>9332487</v>
       </c>
       <c r="H32" t="n">
         <v>2024</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B33" t="n">
-        <v>1765</v>
+        <v>1276.666625976562</v>
       </c>
       <c r="C33" t="n">
-        <v>1846.800048828125</v>
+        <v>1890</v>
       </c>
       <c r="D33" t="n">
-        <v>1423</v>
+        <v>1210.966674804688</v>
       </c>
       <c r="E33" t="n">
-        <v>1523</v>
+        <v>1740.150024414062</v>
       </c>
       <c r="F33" t="n">
-        <v>1523</v>
+        <v>1740.150024414062</v>
       </c>
       <c r="G33" t="n">
-        <v>8341728</v>
+        <v>11116234</v>
       </c>
       <c r="H33" t="n">
         <v>2024</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B34" t="n">
-        <v>1551.050048828125</v>
+        <v>1765</v>
       </c>
       <c r="C34" t="n">
-        <v>2109.14990234375</v>
+        <v>1846.800048828125</v>
       </c>
       <c r="D34" t="n">
-        <v>1551.050048828125</v>
+        <v>1423</v>
       </c>
       <c r="E34" t="n">
-        <v>1808.400024414062</v>
+        <v>1523</v>
       </c>
       <c r="F34" t="n">
-        <v>1808.400024414062</v>
+        <v>1523</v>
       </c>
       <c r="G34" t="n">
-        <v>9120603</v>
+        <v>8341728</v>
       </c>
       <c r="H34" t="n">
         <v>2024</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2275,31 +2267,31 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B35" t="n">
+        <v>1551.050048828125</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2109.14990234375</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1551.050048828125</v>
+      </c>
+      <c r="E35" t="n">
         <v>1808.400024414062</v>
       </c>
-      <c r="C35" t="n">
-        <v>2094</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1698.25</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1822.449951171875</v>
-      </c>
       <c r="F35" t="n">
-        <v>1822.449951171875</v>
+        <v>1808.400024414062</v>
       </c>
       <c r="G35" t="n">
-        <v>12099165</v>
+        <v>9120603</v>
       </c>
       <c r="H35" t="n">
         <v>2024</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2328,56 +2320,514 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B36" t="n">
-        <v>1913</v>
+        <v>1808.400024414062</v>
       </c>
       <c r="C36" t="n">
-        <v>1913.550048828125</v>
+        <v>2094</v>
       </c>
       <c r="D36" t="n">
-        <v>1667.699951171875</v>
+        <v>1698.25</v>
       </c>
       <c r="E36" t="n">
-        <v>1828.349975585938</v>
+        <v>1822.449951171875</v>
       </c>
       <c r="F36" t="n">
-        <v>1828.349975585938</v>
+        <v>1822.449951171875</v>
       </c>
       <c r="G36" t="n">
-        <v>1934090</v>
+        <v>12099165</v>
       </c>
       <c r="H36" t="n">
         <v>2024</v>
       </c>
       <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>18</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1667.699951171875</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1828.349975585938</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1828.349975585938</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1934090</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I37" t="n">
         <v>6</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>22</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B38" t="n">
+        <v>609.1756567423671</v>
+      </c>
+      <c r="C38" t="n">
+        <v>719.0270046795152</v>
+      </c>
+      <c r="D38" t="n">
+        <v>582.9112102897474</v>
+      </c>
+      <c r="E38" t="n">
+        <v>618.3299560546875</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>20701472</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>27</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B39" t="n">
+        <v>625.7532823992225</v>
+      </c>
+      <c r="C39" t="n">
+        <v>744.326181385142</v>
+      </c>
+      <c r="D39" t="n">
+        <v>573.8901686786787</v>
+      </c>
+      <c r="E39" t="n">
+        <v>603.5499877929688</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>16222048</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>31</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B40" t="n">
+        <v>609.2335990586892</v>
+      </c>
+      <c r="C40" t="n">
+        <v>612.030374544934</v>
+      </c>
+      <c r="D40" t="n">
+        <v>509.1485420574447</v>
+      </c>
+      <c r="E40" t="n">
+        <v>575.2393188476562</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>13021905</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>35</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B41" t="n">
+        <v>578.2358655303836</v>
+      </c>
+      <c r="C41" t="n">
+        <v>583.995912166679</v>
+      </c>
+      <c r="D41" t="n">
+        <v>480.7811206649227</v>
+      </c>
+      <c r="E41" t="n">
+        <v>518.1049194335938</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>10247888</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>40</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B42" t="n">
+        <v>526.1892851145566</v>
+      </c>
+      <c r="C42" t="n">
+        <v>579.4076636524711</v>
+      </c>
+      <c r="D42" t="n">
+        <v>480.0644463239398</v>
+      </c>
+      <c r="E42" t="n">
+        <v>524.5241088867188</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>15940419</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>44</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B43" t="n">
+        <v>533.063759473545</v>
+      </c>
+      <c r="C43" t="n">
+        <v>565.2474973803337</v>
+      </c>
+      <c r="D43" t="n">
+        <v>506.4105806505141</v>
+      </c>
+      <c r="E43" t="n">
+        <v>543.15869140625</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>14137504</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>48</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B44" t="n">
+        <v>546.3903942057173</v>
+      </c>
+      <c r="C44" t="n">
+        <v>588.5024002416031</v>
+      </c>
+      <c r="D44" t="n">
+        <v>313.2415972614382</v>
+      </c>
+      <c r="E44" t="n">
+        <v>367.1143493652344</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>26381310</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B45" t="n">
+        <v>362.5166795748308</v>
+      </c>
+      <c r="C45" t="n">
+        <v>484.7548488458103</v>
+      </c>
+      <c r="D45" t="n">
+        <v>357.5192069063174</v>
+      </c>
+      <c r="E45" t="n">
+        <v>378.0588073730469</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>21780537</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B46" t="n">
+        <v>382.7999877929688</v>
+      </c>
+      <c r="C46" t="n">
+        <v>447.6000061035156</v>
+      </c>
+      <c r="D46" t="n">
+        <v>359.3500061035156</v>
+      </c>
+      <c r="E46" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>18445889</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
